--- a/medicine/Handicap/Inside_I'm_Dancing/Inside_I'm_Dancing.xlsx
+++ b/medicine/Handicap/Inside_I'm_Dancing/Inside_I'm_Dancing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inside_I%27m_Dancing</t>
+          <t>Inside_I'm_Dancing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inside I'm Dancing ou Rory O'Shea Was Here est un film irlandais réalisé par Damien O'Donnell, sorti en 2004.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inside_I%27m_Dancing</t>
+          <t>Inside_I'm_Dancing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Connolly, 24 ans, est atteint d'une infirmité motrice cérébrale et est résident à long terme d'une institution pour personnes handicapées. Sa vie, réglée par un planning strict, vole en éclats quand il rencontre Rory O'Shea, une tête brûlée atteint d'une myopathie de Duchenne.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inside_I%27m_Dancing</t>
+          <t>Inside_I'm_Dancing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Inside I'm Dancing
 Réalisation : Damien O'Donnell
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inside_I%27m_Dancing</t>
+          <t>Inside_I'm_Dancing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Steven Robertson : Michael Connolly
 James McAvoy : Rory O'Shea
@@ -603,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Inside_I%27m_Dancing</t>
+          <t>Inside_I'm_Dancing</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,9 +639,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a reçu un accueil mitigée de la critique. Il obtient un score moyen de 59 % sur Metacritic[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a reçu un accueil mitigée de la critique. Il obtient un score moyen de 59 % sur Metacritic.
 </t>
         </is>
       </c>
